--- a/WIP/Systemtest/TCHopdong.xlsx
+++ b/WIP/Systemtest/TCHopdong.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="141">
   <si>
     <t>THÔNG TIN VỀ TESTCASE</t>
   </si>
@@ -613,6 +613,14 @@
   </si>
   <si>
     <t>Hệ thống hiển thị thông báo "Sửa hợp đồng thành công" --&gt; dữ liệu được insert đúng vào DB --&gt; Payment_Status theo thứ tự: 2,3,1</t>
+  </si>
+  <si>
+    <t>B1: Vào form Sửa thông tin hợp đồng
+B2: Không sửa gì
+B3: Nhấn btn "Chấp nhận"</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thông báo "Sửa hợp đồng thành công"</t>
   </si>
 </sst>
 </file>
@@ -900,9 +908,6 @@
   <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -912,15 +917,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -946,24 +942,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -983,12 +961,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1009,9 +981,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1029,6 +998,45 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1333,1724 +1341,1754 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O80"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15" style="3" customWidth="1"/>
     <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="33" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="39.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="4"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
     <col min="9" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="16.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3.85546875" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" outlineLevel="1">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:15" outlineLevel="1">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
     </row>
     <row r="3" spans="1:15" outlineLevel="1">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="45"/>
+      <c r="D3" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="47"/>
     </row>
     <row r="4" spans="1:15" outlineLevel="1">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
     </row>
     <row r="5" spans="1:15" outlineLevel="1">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9">
-        <f>COUNTIF(H1:H198,"P")</f>
+      <c r="C5" s="5">
+        <f>COUNTIF(H1:H199,"P")</f>
         <v>0</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="10">
-        <f>COUNTIF(H1:H198,"U")</f>
-        <v>52</v>
+      <c r="E5" s="6">
+        <f>COUNTIF(H1:H199,"U")</f>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:15" outlineLevel="1">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9">
-        <f>COUNTIF(H1:H198,"F")</f>
+      <c r="C6" s="5">
+        <f>COUNTIF(H1:H199,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="6">
         <f>E5+C6+C5</f>
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:15" outlineLevel="1"/>
     <row r="8" spans="1:15">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="17"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="13"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="12"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="L9" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="M9" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="18" t="s">
+      <c r="N9" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="17"/>
+      <c r="O9" s="13"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="17"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="13"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="12"/>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="17"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="13"/>
     </row>
     <row r="12" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="17"/>
-    </row>
-    <row r="13" spans="1:15" s="29" customFormat="1" ht="409.5">
-      <c r="A13" s="12"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="13"/>
+    </row>
+    <row r="13" spans="1:15" s="19" customFormat="1" ht="409.5">
+      <c r="A13" s="8"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26" t="s">
+      <c r="E13" s="15"/>
+      <c r="F13" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="17"/>
-    </row>
-    <row r="14" spans="1:15" s="29" customFormat="1" ht="63">
-      <c r="A14" s="12"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="30" t="s">
+      <c r="G13" s="16"/>
+      <c r="H13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="13"/>
+    </row>
+    <row r="14" spans="1:15" s="19" customFormat="1" ht="63">
+      <c r="A14" s="8"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26" t="s">
+      <c r="E14" s="15"/>
+      <c r="F14" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="17"/>
-    </row>
-    <row r="15" spans="1:15" s="29" customFormat="1" ht="78.75">
-      <c r="A15" s="12"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="31" t="s">
+      <c r="G14" s="16"/>
+      <c r="H14" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="13"/>
+    </row>
+    <row r="15" spans="1:15" s="19" customFormat="1" ht="78.75">
+      <c r="A15" s="8"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26" t="s">
+      <c r="E15" s="16"/>
+      <c r="F15" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="17"/>
-    </row>
-    <row r="16" spans="1:15" s="29" customFormat="1" ht="94.5">
-      <c r="A16" s="12"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="26" t="s">
+      <c r="G15" s="16"/>
+      <c r="H15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="13"/>
+    </row>
+    <row r="16" spans="1:15" s="19" customFormat="1" ht="94.5">
+      <c r="A16" s="8"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="26" t="s">
+      <c r="E16" s="15"/>
+      <c r="F16" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="17"/>
-    </row>
-    <row r="17" spans="1:15" s="29" customFormat="1" ht="78.75">
-      <c r="A17" s="12"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="34" t="s">
+      <c r="G16" s="16"/>
+      <c r="H16" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="13"/>
+    </row>
+    <row r="17" spans="1:15" s="19" customFormat="1" ht="78.75">
+      <c r="A17" s="8"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="17"/>
-    </row>
-    <row r="18" spans="1:15" s="29" customFormat="1" ht="63">
-      <c r="A18" s="12"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34" t="s">
+      <c r="G17" s="24"/>
+      <c r="H17" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="13"/>
+    </row>
+    <row r="18" spans="1:15" s="19" customFormat="1" ht="63">
+      <c r="A18" s="8"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36" t="s">
+      <c r="E18" s="23"/>
+      <c r="F18" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="17"/>
-    </row>
-    <row r="19" spans="1:15" s="29" customFormat="1" ht="63">
-      <c r="A19" s="12"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34" t="s">
+      <c r="G18" s="24"/>
+      <c r="H18" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="13"/>
+    </row>
+    <row r="19" spans="1:15" s="19" customFormat="1" ht="63">
+      <c r="A19" s="8"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="17"/>
-    </row>
-    <row r="20" spans="1:15" s="29" customFormat="1" ht="94.5">
-      <c r="A20" s="12"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34" t="s">
+      <c r="G19" s="24"/>
+      <c r="H19" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="13"/>
+    </row>
+    <row r="20" spans="1:15" s="19" customFormat="1" ht="94.5">
+      <c r="A20" s="8"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="36"/>
-      <c r="H20" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="17"/>
-    </row>
-    <row r="21" spans="1:15" s="29" customFormat="1" ht="94.5">
-      <c r="A21" s="12"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="36" t="s">
+      <c r="G20" s="24"/>
+      <c r="H20" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="13"/>
+    </row>
+    <row r="21" spans="1:15" s="19" customFormat="1" ht="94.5">
+      <c r="A21" s="8"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36" t="s">
+      <c r="E21" s="24"/>
+      <c r="F21" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="36"/>
-      <c r="H21" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="17"/>
-    </row>
-    <row r="22" spans="1:15" s="29" customFormat="1" ht="94.5">
-      <c r="A22" s="12"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="36" t="s">
+      <c r="G21" s="24"/>
+      <c r="H21" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="13"/>
+    </row>
+    <row r="22" spans="1:15" s="19" customFormat="1" ht="94.5">
+      <c r="A22" s="8"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36" t="s">
+      <c r="E22" s="24"/>
+      <c r="F22" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="17"/>
-    </row>
-    <row r="23" spans="1:15" s="29" customFormat="1" ht="94.5">
-      <c r="A23" s="12"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34" t="s">
+      <c r="G22" s="24"/>
+      <c r="H22" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="13"/>
+    </row>
+    <row r="23" spans="1:15" s="19" customFormat="1" ht="94.5">
+      <c r="A23" s="8"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36" t="s">
+      <c r="E23" s="24"/>
+      <c r="F23" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="36"/>
-      <c r="H23" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="17"/>
-    </row>
-    <row r="24" spans="1:15" s="29" customFormat="1" ht="78.75">
-      <c r="A24" s="12"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="36" t="s">
+      <c r="G23" s="24"/>
+      <c r="H23" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="13"/>
+    </row>
+    <row r="24" spans="1:15" s="19" customFormat="1" ht="78.75">
+      <c r="A24" s="8"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36" t="s">
+      <c r="E24" s="24"/>
+      <c r="F24" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="17"/>
-    </row>
-    <row r="25" spans="1:15" s="29" customFormat="1" ht="63">
-      <c r="A25" s="12"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34" t="s">
+      <c r="G24" s="24"/>
+      <c r="H24" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="13"/>
+    </row>
+    <row r="25" spans="1:15" s="19" customFormat="1" ht="63">
+      <c r="A25" s="8"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="36" t="s">
+      <c r="E25" s="23"/>
+      <c r="F25" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="36"/>
-      <c r="H25" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="17"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="13"/>
     </row>
     <row r="26" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A26" s="12"/>
-      <c r="B26" s="23" t="s">
+      <c r="A26" s="8"/>
+      <c r="B26" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="17"/>
-    </row>
-    <row r="27" spans="1:15" s="42" customFormat="1">
-      <c r="A27" s="39"/>
-      <c r="B27" s="40" t="s">
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="13"/>
+    </row>
+    <row r="27" spans="1:15" s="29" customFormat="1">
+      <c r="A27" s="27"/>
+      <c r="B27" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="41"/>
-    </row>
-    <row r="28" spans="1:15" s="29" customFormat="1" ht="173.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="30" t="s">
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="28"/>
+    </row>
+    <row r="28" spans="1:15" s="19" customFormat="1" ht="173.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="H28" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="17"/>
-    </row>
-    <row r="29" spans="1:15" s="29" customFormat="1" ht="47.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="26" t="s">
+      <c r="H28" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="13"/>
+    </row>
+    <row r="29" spans="1:15" s="19" customFormat="1" ht="47.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26" t="s">
+      <c r="E29" s="16"/>
+      <c r="F29" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="17"/>
-    </row>
-    <row r="30" spans="1:15" s="29" customFormat="1" ht="63">
-      <c r="A30" s="12"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="26" t="s">
+      <c r="G29" s="15"/>
+      <c r="H29" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="13"/>
+    </row>
+    <row r="30" spans="1:15" s="19" customFormat="1" ht="63">
+      <c r="A30" s="8"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36" t="s">
+      <c r="E30" s="24"/>
+      <c r="F30" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="35"/>
-      <c r="H30" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="17"/>
-    </row>
-    <row r="31" spans="1:15" s="29" customFormat="1" ht="63">
-      <c r="A31" s="12"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="26" t="s">
+      <c r="G30" s="23"/>
+      <c r="H30" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="13"/>
+    </row>
+    <row r="31" spans="1:15" s="19" customFormat="1" ht="63">
+      <c r="A31" s="8"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36" t="s">
+      <c r="E31" s="24"/>
+      <c r="F31" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G31" s="35"/>
-      <c r="H31" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="17"/>
-    </row>
-    <row r="32" spans="1:15" s="29" customFormat="1" ht="63">
-      <c r="A32" s="12"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="26" t="s">
+      <c r="G31" s="23"/>
+      <c r="H31" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="13"/>
+    </row>
+    <row r="32" spans="1:15" s="19" customFormat="1" ht="63">
+      <c r="A32" s="8"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36" t="s">
+      <c r="E32" s="24"/>
+      <c r="F32" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G32" s="35"/>
-      <c r="H32" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="17"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="13"/>
     </row>
     <row r="33" spans="1:15">
-      <c r="D33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="H33" s="27"/>
-    </row>
-    <row r="34" spans="1:15" s="42" customFormat="1">
-      <c r="A34" s="39"/>
-      <c r="B34" s="40" t="s">
+      <c r="D33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="1:15" s="29" customFormat="1">
+      <c r="A34" s="27"/>
+      <c r="B34" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="41"/>
-    </row>
-    <row r="35" spans="1:15" s="29" customFormat="1" ht="47.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="43" t="s">
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="28"/>
+    </row>
+    <row r="35" spans="1:15" s="19" customFormat="1" ht="47.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="17"/>
-    </row>
-    <row r="36" spans="1:15" s="29" customFormat="1" ht="63">
-      <c r="A36" s="12"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="43" t="s">
+      <c r="G35" s="15"/>
+      <c r="H35" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="13"/>
+    </row>
+    <row r="36" spans="1:15" s="19" customFormat="1" ht="63">
+      <c r="A36" s="8"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26" t="s">
+      <c r="E36" s="16"/>
+      <c r="F36" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G36" s="25"/>
-      <c r="H36" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="17"/>
-    </row>
-    <row r="37" spans="1:15" s="29" customFormat="1" ht="63">
-      <c r="A37" s="12"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="26" t="s">
+      <c r="G36" s="15"/>
+      <c r="H36" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="13"/>
+    </row>
+    <row r="37" spans="1:15" s="19" customFormat="1" ht="63">
+      <c r="A37" s="8"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="17"/>
-    </row>
-    <row r="38" spans="1:15" s="29" customFormat="1" ht="63">
-      <c r="A38" s="12"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="26" t="s">
+      <c r="G37" s="15"/>
+      <c r="H37" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="13"/>
+    </row>
+    <row r="38" spans="1:15" s="19" customFormat="1" ht="63">
+      <c r="A38" s="8"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26" t="s">
+      <c r="E38" s="16"/>
+      <c r="F38" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G38" s="25"/>
-      <c r="H38" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="17"/>
-    </row>
-    <row r="39" spans="1:15" s="29" customFormat="1" ht="94.5">
-      <c r="A39" s="12"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="26" t="s">
+      <c r="G38" s="15"/>
+      <c r="H38" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="13"/>
+    </row>
+    <row r="39" spans="1:15" s="19" customFormat="1" ht="94.5">
+      <c r="A39" s="8"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="G39" s="26"/>
-      <c r="H39" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="17"/>
-    </row>
-    <row r="40" spans="1:15" s="29" customFormat="1" ht="63">
-      <c r="A40" s="12"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="26" t="s">
+      <c r="G39" s="16"/>
+      <c r="H39" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="13"/>
+    </row>
+    <row r="40" spans="1:15" s="19" customFormat="1" ht="63">
+      <c r="A40" s="8"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26" t="s">
+      <c r="E40" s="16"/>
+      <c r="F40" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G40" s="26"/>
-      <c r="H40" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="17"/>
-    </row>
-    <row r="41" spans="1:15" s="29" customFormat="1" ht="141.75">
-      <c r="A41" s="12"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="26" t="s">
+      <c r="G40" s="16"/>
+      <c r="H40" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="13"/>
+    </row>
+    <row r="41" spans="1:15" s="19" customFormat="1" ht="141.75">
+      <c r="A41" s="8"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F41" s="26" t="s">
+      <c r="F41" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="G41" s="26"/>
-      <c r="H41" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="17"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="13"/>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="12"/>
-      <c r="B42" s="21" t="s">
+      <c r="A42" s="8"/>
+      <c r="B42" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="17"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="13"/>
     </row>
     <row r="43" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A43" s="12"/>
-      <c r="B43" s="23" t="s">
+      <c r="A43" s="8"/>
+      <c r="B43" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="17"/>
-    </row>
-    <row r="44" spans="1:15" s="29" customFormat="1" ht="409.5">
-      <c r="A44" s="12"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="25" t="s">
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="13"/>
+    </row>
+    <row r="44" spans="1:15" s="19" customFormat="1" ht="409.5">
+      <c r="A44" s="8"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="E44" s="25"/>
-      <c r="F44" s="26" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="G44" s="26"/>
-      <c r="H44" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="17"/>
-    </row>
-    <row r="45" spans="1:15" s="29" customFormat="1" ht="78.75">
-      <c r="A45" s="12"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="30" t="s">
+      <c r="G44" s="16"/>
+      <c r="H44" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="13"/>
+    </row>
+    <row r="45" spans="1:15" s="19" customFormat="1" ht="78.75">
+      <c r="A45" s="8"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="D45" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E45" s="25"/>
-      <c r="F45" s="26" t="s">
+      <c r="E45" s="15"/>
+      <c r="F45" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="G45" s="26"/>
-      <c r="H45" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="17"/>
-    </row>
-    <row r="46" spans="1:15" s="29" customFormat="1" ht="78.75">
-      <c r="A46" s="12"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="31" t="s">
+      <c r="G45" s="16"/>
+      <c r="H45" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="13"/>
+    </row>
+    <row r="46" spans="1:15" s="19" customFormat="1" ht="78.75">
+      <c r="A46" s="8"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26" t="s">
+      <c r="E46" s="16"/>
+      <c r="F46" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G46" s="26"/>
-      <c r="H46" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="17"/>
-    </row>
-    <row r="47" spans="1:15" s="29" customFormat="1" ht="94.5">
-      <c r="A47" s="12"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="26" t="s">
+      <c r="G46" s="16"/>
+      <c r="H46" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="13"/>
+    </row>
+    <row r="47" spans="1:15" s="19" customFormat="1" ht="94.5">
+      <c r="A47" s="8"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="26" t="s">
+      <c r="E47" s="15"/>
+      <c r="F47" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G47" s="26"/>
-      <c r="H47" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="17"/>
-    </row>
-    <row r="48" spans="1:15" s="29" customFormat="1" ht="78.75">
-      <c r="A48" s="12"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="34" t="s">
+      <c r="G47" s="16"/>
+      <c r="H47" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="13"/>
+    </row>
+    <row r="48" spans="1:15" s="19" customFormat="1" ht="78.75">
+      <c r="A48" s="8"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D48" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="35" t="s">
+      <c r="E48" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F48" s="36" t="s">
+      <c r="F48" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G48" s="36"/>
-      <c r="H48" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="35"/>
-      <c r="O48" s="17"/>
-    </row>
-    <row r="49" spans="1:15" s="29" customFormat="1" ht="63">
-      <c r="A49" s="12"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="34" t="s">
+      <c r="G48" s="24"/>
+      <c r="H48" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="13"/>
+    </row>
+    <row r="49" spans="1:15" s="19" customFormat="1" ht="63">
+      <c r="A49" s="8"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="36" t="s">
+      <c r="D49" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="E49" s="35"/>
-      <c r="F49" s="36" t="s">
+      <c r="E49" s="23"/>
+      <c r="F49" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G49" s="36"/>
-      <c r="H49" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="17"/>
-    </row>
-    <row r="50" spans="1:15" s="29" customFormat="1" ht="63">
-      <c r="A50" s="12"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="34" t="s">
+      <c r="G49" s="24"/>
+      <c r="H49" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="13"/>
+    </row>
+    <row r="50" spans="1:15" s="19" customFormat="1" ht="63">
+      <c r="A50" s="8"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="36" t="s">
+      <c r="D50" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="E50" s="35" t="s">
+      <c r="E50" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="F50" s="36" t="s">
+      <c r="F50" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G50" s="36"/>
-      <c r="H50" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="37"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="17"/>
-    </row>
-    <row r="51" spans="1:15" s="29" customFormat="1" ht="94.5">
-      <c r="A51" s="12"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="34" t="s">
+      <c r="G50" s="24"/>
+      <c r="H50" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="13"/>
+    </row>
+    <row r="51" spans="1:15" s="19" customFormat="1" ht="94.5">
+      <c r="A51" s="8"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="36" t="s">
+      <c r="D51" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="E51" s="36" t="s">
+      <c r="E51" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F51" s="36" t="s">
+      <c r="F51" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="G51" s="36"/>
-      <c r="H51" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="37"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="17"/>
-    </row>
-    <row r="52" spans="1:15" s="29" customFormat="1" ht="94.5">
-      <c r="A52" s="12"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="36" t="s">
+      <c r="G51" s="24"/>
+      <c r="H51" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="13"/>
+    </row>
+    <row r="52" spans="1:15" s="19" customFormat="1" ht="94.5">
+      <c r="A52" s="8"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36" t="s">
+      <c r="E52" s="24"/>
+      <c r="F52" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G52" s="36"/>
-      <c r="H52" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="35"/>
-      <c r="O52" s="17"/>
-    </row>
-    <row r="53" spans="1:15" s="29" customFormat="1" ht="94.5">
-      <c r="A53" s="12"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="36" t="s">
+      <c r="G52" s="24"/>
+      <c r="H52" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="13"/>
+    </row>
+    <row r="53" spans="1:15" s="19" customFormat="1" ht="94.5">
+      <c r="A53" s="8"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36" t="s">
+      <c r="E53" s="24"/>
+      <c r="F53" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="G53" s="36"/>
-      <c r="H53" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="35"/>
-      <c r="O53" s="17"/>
-    </row>
-    <row r="54" spans="1:15" s="29" customFormat="1" ht="94.5">
-      <c r="A54" s="12"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="34" t="s">
+      <c r="G53" s="24"/>
+      <c r="H53" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="13"/>
+    </row>
+    <row r="54" spans="1:15" s="19" customFormat="1" ht="94.5">
+      <c r="A54" s="8"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D54" s="36" t="s">
+      <c r="D54" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36" t="s">
+      <c r="E54" s="24"/>
+      <c r="F54" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="G54" s="36"/>
-      <c r="H54" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="37"/>
-      <c r="N54" s="35"/>
-      <c r="O54" s="17"/>
-    </row>
-    <row r="55" spans="1:15" s="29" customFormat="1" ht="78.75">
-      <c r="A55" s="12"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="36" t="s">
+      <c r="G54" s="24"/>
+      <c r="H54" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="13"/>
+    </row>
+    <row r="55" spans="1:15" s="19" customFormat="1" ht="78.75">
+      <c r="A55" s="8"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36" t="s">
+      <c r="E55" s="24"/>
+      <c r="F55" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G55" s="36"/>
-      <c r="H55" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="17"/>
-    </row>
-    <row r="56" spans="1:15" s="29" customFormat="1" ht="63">
-      <c r="A56" s="12"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="34" t="s">
+      <c r="G55" s="24"/>
+      <c r="H55" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="13"/>
+    </row>
+    <row r="56" spans="1:15" s="19" customFormat="1" ht="63">
+      <c r="A56" s="8"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D56" s="36" t="s">
+      <c r="D56" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="E56" s="35"/>
-      <c r="F56" s="36" t="s">
+      <c r="E56" s="23"/>
+      <c r="F56" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G56" s="36"/>
-      <c r="H56" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="35"/>
-      <c r="O56" s="17"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="23"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="23"/>
+      <c r="O56" s="13"/>
     </row>
     <row r="57" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A57" s="12"/>
-      <c r="B57" s="23" t="s">
+      <c r="A57" s="8"/>
+      <c r="B57" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="23"/>
-      <c r="M57" s="23"/>
-      <c r="N57" s="23"/>
-      <c r="O57" s="17"/>
-    </row>
-    <row r="58" spans="1:15" s="42" customFormat="1">
-      <c r="A58" s="39"/>
-      <c r="B58" s="40" t="s">
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="37"/>
+      <c r="O57" s="13"/>
+    </row>
+    <row r="58" spans="1:15" s="29" customFormat="1">
+      <c r="A58" s="27"/>
+      <c r="B58" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="40"/>
-      <c r="K58" s="40"/>
-      <c r="L58" s="40"/>
-      <c r="M58" s="40"/>
-      <c r="N58" s="40"/>
-      <c r="O58" s="41"/>
-    </row>
-    <row r="59" spans="1:15" s="29" customFormat="1" ht="189">
-      <c r="A59" s="12"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="30" t="s">
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="38"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="38"/>
+      <c r="M58" s="38"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="28"/>
+    </row>
+    <row r="59" spans="1:15" s="19" customFormat="1" ht="189">
+      <c r="A59" s="8"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D59" s="26" t="s">
+      <c r="D59" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E59" s="26" t="s">
+      <c r="E59" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="F59" s="26" t="s">
+      <c r="F59" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="G59" s="26" t="s">
+      <c r="G59" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="H59" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I59" s="25"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="25"/>
-      <c r="O59" s="17"/>
-    </row>
-    <row r="60" spans="1:15" s="29" customFormat="1" ht="63">
-      <c r="A60" s="12"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="26" t="s">
+      <c r="H59" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="13"/>
+    </row>
+    <row r="60" spans="1:15" s="19" customFormat="1" ht="63">
+      <c r="A60" s="8"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26" t="s">
+      <c r="E60" s="16"/>
+      <c r="F60" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="G60" s="25"/>
-      <c r="H60" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="28"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="17"/>
-    </row>
-    <row r="61" spans="1:15" s="29" customFormat="1" ht="78.75">
-      <c r="A61" s="12"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="26" t="s">
+      <c r="G60" s="15"/>
+      <c r="H60" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="13"/>
+    </row>
+    <row r="61" spans="1:15" s="19" customFormat="1" ht="78.75">
+      <c r="A61" s="8"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36" t="s">
+      <c r="E61" s="24"/>
+      <c r="F61" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="G61" s="35"/>
-      <c r="H61" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I61" s="35"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="37"/>
-      <c r="N61" s="35"/>
-      <c r="O61" s="17"/>
-    </row>
-    <row r="62" spans="1:15" s="29" customFormat="1" ht="78.75">
-      <c r="A62" s="12"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="26" t="s">
+      <c r="G61" s="23"/>
+      <c r="H61" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="23"/>
+      <c r="O61" s="13"/>
+    </row>
+    <row r="62" spans="1:15" s="19" customFormat="1" ht="78.75">
+      <c r="A62" s="8"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36" t="s">
+      <c r="E62" s="24"/>
+      <c r="F62" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="G62" s="35"/>
-      <c r="H62" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="37"/>
-      <c r="N62" s="35"/>
-      <c r="O62" s="17"/>
-    </row>
-    <row r="63" spans="1:15" s="29" customFormat="1" ht="78.75">
-      <c r="A63" s="12"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="26" t="s">
+      <c r="G62" s="23"/>
+      <c r="H62" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="13"/>
+    </row>
+    <row r="63" spans="1:15" s="19" customFormat="1" ht="78.75">
+      <c r="A63" s="8"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36" t="s">
+      <c r="E63" s="24"/>
+      <c r="F63" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="G63" s="35"/>
-      <c r="H63" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="37"/>
-      <c r="N63" s="35"/>
-      <c r="O63" s="17"/>
-    </row>
-    <row r="64" spans="1:15" s="29" customFormat="1" ht="126">
-      <c r="A64" s="12"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="47"/>
-      <c r="D64" s="36" t="s">
+      <c r="G63" s="23"/>
+      <c r="H63" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="13"/>
+    </row>
+    <row r="64" spans="1:15" s="19" customFormat="1" ht="126">
+      <c r="A64" s="8"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36" t="s">
+      <c r="E64" s="24"/>
+      <c r="F64" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="G64" s="35"/>
-      <c r="H64" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="37"/>
-      <c r="N64" s="35"/>
-      <c r="O64" s="17"/>
-    </row>
-    <row r="65" spans="1:15" s="29" customFormat="1" ht="126">
-      <c r="A65" s="12"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="36" t="s">
+      <c r="G64" s="23"/>
+      <c r="H64" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="23"/>
+      <c r="O64" s="13"/>
+    </row>
+    <row r="65" spans="1:15" s="19" customFormat="1" ht="126">
+      <c r="A65" s="8"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36" t="s">
+      <c r="E65" s="24"/>
+      <c r="F65" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="G65" s="35"/>
-      <c r="H65" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="37"/>
-      <c r="N65" s="35"/>
-      <c r="O65" s="17"/>
-    </row>
-    <row r="66" spans="1:15" s="42" customFormat="1">
-      <c r="A66" s="39"/>
-      <c r="B66" s="40" t="s">
+      <c r="G65" s="23"/>
+      <c r="H65" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="23"/>
+      <c r="O65" s="13"/>
+    </row>
+    <row r="66" spans="1:15" s="19" customFormat="1" ht="63">
+      <c r="A66" s="8"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="G66" s="23"/>
+      <c r="H66" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="13"/>
+    </row>
+    <row r="67" spans="1:15" s="29" customFormat="1">
+      <c r="A67" s="27"/>
+      <c r="B67" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="40"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="40"/>
-      <c r="K66" s="40"/>
-      <c r="L66" s="40"/>
-      <c r="M66" s="40"/>
-      <c r="N66" s="40"/>
-      <c r="O66" s="41"/>
-    </row>
-    <row r="67" spans="1:15" s="29" customFormat="1" ht="63">
-      <c r="A67" s="12"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="43" t="s">
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="38"/>
+      <c r="L67" s="38"/>
+      <c r="M67" s="38"/>
+      <c r="N67" s="38"/>
+      <c r="O67" s="28"/>
+    </row>
+    <row r="68" spans="1:15" s="19" customFormat="1" ht="63">
+      <c r="A68" s="8"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D67" s="26" t="s">
+      <c r="D68" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E67" s="26" t="s">
+      <c r="E68" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F67" s="26" t="s">
+      <c r="F68" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G67" s="25"/>
-      <c r="H67" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="25"/>
-      <c r="M67" s="28"/>
-      <c r="N67" s="25"/>
-      <c r="O67" s="17"/>
-    </row>
-    <row r="68" spans="1:15" s="29" customFormat="1" ht="78.75">
-      <c r="A68" s="12"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="43" t="s">
+      <c r="G68" s="15"/>
+      <c r="H68" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="13"/>
+    </row>
+    <row r="69" spans="1:15" s="19" customFormat="1" ht="78.75">
+      <c r="A69" s="8"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D68" s="26" t="s">
+      <c r="D69" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26" t="s">
+      <c r="E69" s="16"/>
+      <c r="F69" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G68" s="25"/>
-      <c r="H68" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="25"/>
-      <c r="M68" s="28"/>
-      <c r="N68" s="25"/>
-      <c r="O68" s="17"/>
-    </row>
-    <row r="69" spans="1:15" s="29" customFormat="1" ht="78.75">
-      <c r="A69" s="12"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="26" t="s">
+      <c r="G69" s="15"/>
+      <c r="H69" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="13"/>
+    </row>
+    <row r="70" spans="1:15" s="19" customFormat="1" ht="78.75">
+      <c r="A70" s="8"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="E69" s="26" t="s">
+      <c r="E70" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="F69" s="26" t="s">
+      <c r="F70" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="G69" s="25"/>
-      <c r="H69" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="25"/>
-      <c r="M69" s="28"/>
-      <c r="N69" s="25"/>
-      <c r="O69" s="17"/>
-    </row>
-    <row r="70" spans="1:15" s="29" customFormat="1" ht="78.75">
-      <c r="A70" s="12"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="26" t="s">
+      <c r="G70" s="15"/>
+      <c r="H70" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="13"/>
+    </row>
+    <row r="71" spans="1:15" s="19" customFormat="1" ht="78.75">
+      <c r="A71" s="8"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26" t="s">
+      <c r="E71" s="16"/>
+      <c r="F71" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G70" s="25"/>
-      <c r="H70" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
-      <c r="K70" s="25"/>
-      <c r="L70" s="25"/>
-      <c r="M70" s="28"/>
-      <c r="N70" s="25"/>
-      <c r="O70" s="17"/>
-    </row>
-    <row r="71" spans="1:15" s="29" customFormat="1" ht="94.5">
-      <c r="A71" s="12"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="26" t="s">
+      <c r="G71" s="15"/>
+      <c r="H71" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="18"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="13"/>
+    </row>
+    <row r="72" spans="1:15" s="19" customFormat="1" ht="94.5">
+      <c r="A72" s="8"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="E71" s="26" t="s">
+      <c r="E72" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F71" s="26" t="s">
+      <c r="F72" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="G71" s="26"/>
-      <c r="H71" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I71" s="25"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="25"/>
-      <c r="L71" s="25"/>
-      <c r="M71" s="28"/>
-      <c r="N71" s="25"/>
-      <c r="O71" s="17"/>
-    </row>
-    <row r="72" spans="1:15" s="29" customFormat="1" ht="78.75">
-      <c r="A72" s="12"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="26" t="s">
+      <c r="G72" s="16"/>
+      <c r="H72" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="13"/>
+    </row>
+    <row r="73" spans="1:15" s="19" customFormat="1" ht="78.75">
+      <c r="A73" s="8"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26" t="s">
+      <c r="E73" s="16"/>
+      <c r="F73" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G72" s="26"/>
-      <c r="H72" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
-      <c r="L72" s="25"/>
-      <c r="M72" s="28"/>
-      <c r="N72" s="25"/>
-      <c r="O72" s="17"/>
-    </row>
-    <row r="73" spans="1:15" s="29" customFormat="1" ht="141.75">
-      <c r="A73" s="12"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="26" t="s">
+      <c r="G73" s="16"/>
+      <c r="H73" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="13"/>
+    </row>
+    <row r="74" spans="1:15" s="19" customFormat="1" ht="141.75">
+      <c r="A74" s="8"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="E73" s="26" t="s">
+      <c r="E74" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F73" s="26" t="s">
+      <c r="F74" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="G73" s="26"/>
-      <c r="H73" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I73" s="25"/>
-      <c r="J73" s="25"/>
-      <c r="K73" s="25"/>
-      <c r="L73" s="25"/>
-      <c r="M73" s="28"/>
-      <c r="N73" s="25"/>
-      <c r="O73" s="17"/>
-    </row>
-    <row r="74" spans="1:15">
-      <c r="A74" s="12"/>
-      <c r="B74" s="21" t="s">
+      <c r="G74" s="16"/>
+      <c r="H74" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="13"/>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="8"/>
+      <c r="B75" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="22"/>
-      <c r="K74" s="22"/>
-      <c r="L74" s="22"/>
-      <c r="M74" s="22"/>
-      <c r="N74" s="22"/>
-      <c r="O74" s="17"/>
-    </row>
-    <row r="75" spans="1:15" s="29" customFormat="1">
-      <c r="A75" s="12"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="44"/>
-      <c r="L75" s="44"/>
-      <c r="M75" s="25"/>
-      <c r="N75" s="25"/>
-      <c r="O75" s="17"/>
-    </row>
-    <row r="76" spans="1:15">
-      <c r="A76" s="17"/>
-      <c r="B76" s="45"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="45"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="46"/>
-      <c r="O76" s="17"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="40"/>
+      <c r="K75" s="40"/>
+      <c r="L75" s="40"/>
+      <c r="M75" s="40"/>
+      <c r="N75" s="40"/>
+      <c r="O75" s="13"/>
+    </row>
+    <row r="76" spans="1:15" s="19" customFormat="1">
+      <c r="A76" s="8"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="31"/>
+      <c r="L76" s="31"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="13"/>
     </row>
     <row r="77" spans="1:15">
-      <c r="A77" s="29"/>
-      <c r="O77" s="29"/>
+      <c r="A77" s="13"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="33"/>
+      <c r="O77" s="13"/>
     </row>
     <row r="78" spans="1:15">
-      <c r="O78" s="29"/>
+      <c r="A78" s="19"/>
+      <c r="O78" s="19"/>
     </row>
     <row r="79" spans="1:15">
-      <c r="O79" s="29"/>
+      <c r="O79" s="19"/>
     </row>
     <row r="80" spans="1:15">
-      <c r="O80" s="29"/>
+      <c r="O80" s="19"/>
+    </row>
+    <row r="81" spans="15:15">
+      <c r="O81" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B57:N57"/>
-    <mergeCell ref="B58:N58"/>
-    <mergeCell ref="B66:N66"/>
-    <mergeCell ref="B74:N74"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
     <mergeCell ref="B34:N34"/>
     <mergeCell ref="B42:N42"/>
     <mergeCell ref="B43:N43"/>
@@ -3067,18 +3105,11 @@
     <mergeCell ref="L9:L10"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B57:N57"/>
+    <mergeCell ref="B58:N58"/>
+    <mergeCell ref="B67:N67"/>
+    <mergeCell ref="B75:N75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
